--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonemac/auto_msg_python/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1EFF6A-8A63-5849-AFC4-16D0EB4A27D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView minimized="1" xWindow="0" yWindow="620" windowWidth="14400" windowHeight="8060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,30 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="5">
   <si>
-    <t xml:space="preserve">Numero</t>
+    <t>Numero</t>
   </si>
   <si>
-    <t xml:space="preserve">Mensagem</t>
+    <t>Mensagem</t>
   </si>
   <si>
-    <t xml:space="preserve">📢 COMUNICADO IMPORTANTE
+    <t>📢 COMUNICADO IMPORTANTE
 Informamos que o agendamento para o recadastramento dos auxílios municipais para o dia 1 e 2 de dezembro foi cancelado.
 Pedimos que todos realizem um novo agendamento por meio do link oficial:
 👉 www.assistenciaipojuca.com.br
 Agradecemos a compreensão de todos.
 Secretaria de Desenvolvimento Social – Ipojuca.</t>
   </si>
+  <si>
+    <t>Números enviados</t>
+  </si>
+  <si>
+    <t>Números não enviados</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,26 +60,23 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,111 +88,1899 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t> Dados retirados da automação</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002C-9DDC-4F4E-ACDD-66D89A91D742}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$199:$E$199</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Números enviados</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Números não enviados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$200:$E$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000024-9DDC-4F4E-ACDD-66D89A91D742}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000026-9DDC-4F4E-ACDD-66D89A91D742}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-9DDC-4F4E-ACDD-66D89A91D742}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$199:$E$199</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Números enviados</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Números não enviados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$200:$E$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000025-9DDC-4F4E-ACDD-66D89A91D742}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$199:$E$199</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Números enviados</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Números não enviados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$200:$E$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000028-9DDC-4F4E-ACDD-66D89A91D742}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002A-9DDC-4F4E-ACDD-66D89A91D742}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-9DDC-4F4E-ACDD-66D89A91D742}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$199:$E$199</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Números enviados</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Números não enviados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$200:$E$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000029-9DDC-4F4E-ACDD-66D89A91D742}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$199:$E$199</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Números enviados</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Números não enviados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$200:$E$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-9DDC-4F4E-ACDD-66D89A91D742}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-9DDC-4F4E-ACDD-66D89A91D742}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-9DDC-4F4E-ACDD-66D89A91D742}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$199:$E$199</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Números enviados</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Números não enviados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$200:$E$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-9DDC-4F4E-ACDD-66D89A91D742}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="6"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$199:$E$199</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Números enviados</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Números não enviados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$200:$E$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-9DDC-4F4E-ACDD-66D89A91D742}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="7"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000020-9DDC-4F4E-ACDD-66D89A91D742}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000022-9DDC-4F4E-ACDD-66D89A91D742}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$199:$E$199</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Números enviados</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Números não enviados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$200:$E$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000023-9DDC-4F4E-ACDD-66D89A91D742}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8467</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>358206</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>21710</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84A8B098-0CE8-4345-5EC8-F1CBCF668808}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -195,12 +1988,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -229,7 +2022,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -250,7 +2043,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -301,7 +2094,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -319,32 +2112,33 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A41"/>
+    <sheetView tabSelected="1" topLeftCell="C172" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G199" sqref="G199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="108.1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -352,333 +2146,345 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>992932101</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>987551024</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>992746947</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>993101853</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>984657918</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>985776701</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>991459915</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>987447532</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>991468145</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>992658539</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>994646126</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>982278907</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>992786794</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>992170002</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>986725334</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>993281083</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>989337235</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>988750846</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>983554843</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>988834073</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>992835691</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>993507800</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>993241888</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>993775005</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>993115182</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>986685464</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>971110009</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>991882012</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>985576661</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>992113941</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>994315926</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>994282567</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>991912481</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>994531729</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>991371383</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>993925374</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>989283722</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>989176375</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>993771176</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>994727887</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="199" spans="4:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D199" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="4:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D200" s="5">
+        <v>238</v>
+      </c>
+      <c r="E200" s="2">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>